--- a/Excel/EposGameText.xlsx
+++ b/Excel/EposGameText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37109EF1-B612-4E5B-BE04-041E3E407D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705A5B04-6462-476A-82D3-E87874E7B917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -47,12 +47,5200 @@
   <si>
     <t>대검 설명</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>천갑옷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꼭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>눈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>듯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>슬피</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>살려도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>살지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>못하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>죽으려도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>죽지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>못하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자신이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알던</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세상을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빼앗기고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>외따로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그렇게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삶도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>죽음도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세상도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>갖지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>못한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스스로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삶과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>죽음을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>손에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쥐고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세상에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>칼을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>겨누기로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>했습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가죽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>갑옷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>갑옷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>어릴 적 잠들기 전 부모님께서는 그들의 첫 영웅들을 동화라는 형태로 우리에게 전해 주셨습니다. 그들의 용기, 지혜, 우정, 믿음은 점차 차가워지는 세상 속에서 우리 곁에 있었습니다. 우리 다음에 오는 아이들을 기다리며, 시간이 지나도 바라지 않는 것들이 있다며.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 것에는 끝이 있다고들 말합니다. 그러나 선한 의지에마저 끝이 있다면, 세상은 너무 슬플 겁니다. 한 사람이라도 진실로든, 거짓으로든 선의를 베풀었다면, 이는 또 다른 누군가에게 조금 더 자란 선의로 향할 것입니다. 언젠가는, 이 수많은 선의들이 구원이라는 이름으로 세상을 비출 것입니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>만인의 귀감 되는 자, 단 한 분만을 섬기는 자, 가장 낮은 이들에게 벨벳 장갑으로 대하는 자, 환난 속의 촛불이요 치세 속의 별이 되는 자, 단 한 사람 벗을 위해 기꺼이 권세와도 맞서는 자.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아름다움은 무기입니다. 지성의 아름다움, 외형의 아름다움, 재능의 아름다움. 이를 어떻게 쓰느냐에 따라 사람은 무엇이든 될 수 있습니다. 세상 앞에 나설 수도 있고, 세상 뒤에 숨을 수도 있습니다. 자, 당신이 마주하는 분이 어떤 분이신지 이제 알겠습니까?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>명의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>위대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>승자에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>경의를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>위선을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>베어낸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>단호한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>검과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>유쾌한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>걸음에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>환호를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>다가오는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>꿀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>같은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>자유의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>향에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>축배를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그리고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>핍박했던</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>쇠고랑과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>멍에에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>지옥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>벼락</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>같은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>징벌을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>당신을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>움직이는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>것이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>무엇이겠습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>자루</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>금은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>몸은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>움직이나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>영혼은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>움직이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>못합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>멋들어진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>연설은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>한순간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>영혼을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>눈멀게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>당신을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>움직이나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>눈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>뜨는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>어느</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>날</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>미치광이가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>자신을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>보게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>될</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>것입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>당신을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>움직이는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>것은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>당신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>안에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>올곧게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정신입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>온</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>세상이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>위선과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>타락으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>추악해져도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사람만은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그렇지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>않았습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>고귀한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>황제가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>아니었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>기름부어진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>성인도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>아니었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>위선에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>견디지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>못하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>직접</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>여정에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>오른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>젊은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>성직자였습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>관측자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>있었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>하염없이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>머나먼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>우주를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>내다봤습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>각양각색의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>은하들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그녀를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>반겨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>주었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그러나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그녀는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>무한한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>공간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>어디에서도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>만족하지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>못했습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>어디에도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>우주의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>의미는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>없었기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>때문입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>글은 여러 얼굴을 갖습니다.아무리 옳게 쓰인 글이라도, 읽는 이에 따라 각기 다른 얼굴을 보입니다. 찬미하는 글 속에서도 누군가는 신랄한 비난을 봅니다. 세상을 구하려는 글 속에서도 누군가는 파멸의 길을 봅니다. 빛 속에서도 한 조각 그림자를 찾으려는 이들 탓에, 글은 여러 얼굴을 갖고 말았습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>얼마나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숭고한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개념입니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정의는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>눈이 필요하지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정의는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>눈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없이도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>곧은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>길을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>걷기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때문입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정의는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없이도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>천칭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없이도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>옳고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그름을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가리며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없이도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>악의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>벱니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그러나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우리의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정의가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형태를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달리함에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의문을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>품지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마십시오</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정의는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>언제나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>옳습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>진정 위엄 있는 자는 허투루 움직이지 않습니다. 진정 위엄 있는 자는 범부들과 소인배들이 위엄이 침묵함을 두고 분수를 잊어 헛되이 움직일 때, 비로소 잠에서 깨어납니다. 성벽, 금고, 궁전을 무너뜨리며, 하늘과 땅을 울리며.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑을 하고 사랑을 베풀고 사랑을 받는 데에 자격이 있겠습니까? 사랑은 순수한 것이어서 그런 것들을 모릅니다. 알 수 있어도 알지 않으며, 모든 것에 무지한 채로 그저 세상을 메울 뿐입니다. 사람이 사랑을 할 때 무지해지는 이유가 바로 사랑의 본질이 무지함이기 때문입니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>누군가 평생을 다 바쳐 지켜야 할 이가 있음은 섬기는 자로서 축복입니다. 누군가 평생을 바쳐 지켜주는 이가 있음은 섬김받는 자로서 축복입니다. 거대한 궁정도, 단란한 가정도 이 순환이 깨진다면 일순간에 무너질 것입니다. 섬기고 섬김받을 수 있을 때 그리하십시오.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>세상 모든 것은 짝을 이룸으로 존재합니다. 겉이 있다면 속이 있고, 앞이 있다면 뒤가 있습니다. 그러나 우리는 이 드넓은 세상의 겉밖에 보지 못합니다. 그래서일겁니다, 사람들이 속보다는 겉을, 뒷모습보다는 앞모습 보기를 더 원하는 것은. 진정 중요한 것은 본질과, 그 너머의 것인데도 말입니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>창도 없는 방에, 각기 다른 세상을 비추는 창들이 펼쳐져 있습니다. 어느 세상은 영원히 한겨울이고, 어떤 세상은 영원히 꽃 피는 봄날입니다. 이름도 없이 온 우주에 흐드러진 세상들을 잡아다가 창 속에 붙들고, 각각 거기에 걸맞는 이름들을 주는 그는 무엇을 위하여 이토록 공을 들이고 있을까요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>육신과 정신이 날카롭고 잽싸야지만 살아남을 수 있을 것입니다. 이곳은 그 누구도 와 본 적 없고, 또 그 누구도 올 수 없는 곳이기 때문입니다. 변화하는 풍경에 적응하고, 추위도 더위도 견뎌내면서 저기 멀리 보이는 곳으로 나아가야 할 것입니다. 이곳을 소개합니다. 바로 당신의 오늘입니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이따금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>겨울</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바람과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메마르며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행동이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>살을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>듯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날카로운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>칼날과도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무엇이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그렇게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만들었을까요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>힘일까요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아니면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이치를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>깨닫는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지혜일까요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어쩌면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정확히</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반대일지도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모릅니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한없이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>약하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한없이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무지하다고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여기기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때문에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스스로를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>갑옷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>속에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가둔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것일지도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모릅니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>낯선 향기, 낯선 소리, 낯선 거리. 모든 것이 낯섭니다. 걷고 걷다 보니 어느덧 이런 곳까지 다다르고 말았습니다. 많은 이들이 당신 앞에 나타났다가 사라집니다. 어떤 이와는 오래 나란히 걷기도 하지만, 어떤 이와는 금세 헤어집니다. 누군가는 당신의 지갑을 노릴 것이고, 누군가는 당신에게 손을 내밀 것입니다. 이 거리 끝에서 걸어온 길을 돌아볼 때에, 당신은 어떤 모습이 되어 있겠습니까?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>진정 믿을 수 있음은 언제 어디에서라도 마음에 기댈 곳이 되어 줍니다. 언약으로, 서약으로 맺은 끈끈한 연대는 공증인들이, 마음에서 우러나오는 신의가 뒷받침하여 온 세상이 등을 돌린다고 하더라도 마지막까지 쥐고 매달릴 수 있는 밧줄이 되어 줍니다. 그리고 이는 시간이 얼마나 지난다 하더라도 바라지 않아서, 먼 훗날까지도 기억하는 자들에 의해서 이어집니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>천문학자 - 비밀소녀(The Astronomer)</t>
+  </si>
+  <si>
+    <t>하급사제 - 주르르(The Clergy)</t>
+  </si>
+  <si>
+    <t>정당함 - 고세구(The Rightness)</t>
+  </si>
+  <si>
+    <t>검투사 - 뢴트게늄(The Champion)</t>
+  </si>
+  <si>
+    <t>비탄 - 릴파(The Sorrow)</t>
+  </si>
+  <si>
+    <t>실력자 - 아이네(The Kingfish)</t>
+  </si>
+  <si>
+    <t>고위 기사 - 비즈니스킴(The High knight)</t>
+  </si>
+  <si>
+    <t>구원 - 비킴에게 구원받은 뒤, 미미를 구원하는 세용(The Salvation)</t>
+  </si>
+  <si>
+    <t>추격자 - 그림자 나비처럼 되기 위해 그 행보를 따라가는 닌닌(The chaser)</t>
+  </si>
+  <si>
+    <t>필경사 - 해루석(The Scribe)</t>
+  </si>
+  <si>
+    <t>뒤틀린 정의 - 이단을 처형하는 빅토리(Justice Distorted)</t>
+  </si>
+  <si>
+    <t>위엄 - 언령을 사용하는 단답벌레(The majesty)</t>
+  </si>
+  <si>
+    <t>사랑 - 젠투(The Fraternity)</t>
+  </si>
+  <si>
+    <t>충실함 - 불곰(The Loyal)</t>
+  </si>
+  <si>
+    <t>표리부동 - 소피아(The Duplicity)</t>
+  </si>
+  <si>
+    <t>화랑 - 징버거(The Gallery)</t>
+  </si>
+  <si>
+    <t>기민함 - 비챤(The Agility)</t>
+  </si>
+  <si>
+    <t>냉엄함 - 시리안 레인(The Harshness)</t>
+  </si>
+  <si>
+    <t>이방인 - 히키킹(The Etranger)</t>
+  </si>
+  <si>
+    <t>맹우 - 드래곤과 11월 서약을 맺는 우왁굳(The Comrade)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +5274,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -107,7 +5322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,77 +5331,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -194,27 +5349,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -497,75 +5665,436 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
+    <col min="2" max="2" width="68.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3">
         <v>9010001</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="4">
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
         <v>9010002</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4">
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
         <v>9010003</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="4">
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
         <v>9010004</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="4">
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
         <v>9010005</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>9010006</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
+        <v>9010007</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
+        <v>9010008</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
+        <v>9010009</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
+        <v>9010010</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="52.2">
+      <c r="A20" s="6">
+        <v>3000001</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="52.2">
+      <c r="A21" s="6">
+        <v>3000002</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="69.599999999999994">
+      <c r="A22" s="6">
+        <v>3000003</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="52.2">
+      <c r="A23" s="6">
+        <v>3000004</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="59.4">
+      <c r="A24" s="6">
+        <v>3000005</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="69.599999999999994">
+      <c r="A25" s="6">
+        <v>3000006</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="52.2">
+      <c r="A26" s="6">
+        <v>3000007</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="69.599999999999994">
+      <c r="A27" s="6">
+        <v>3000008</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="69.599999999999994">
+      <c r="A28" s="6">
+        <v>3000009</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="69.599999999999994">
+      <c r="A29" s="6">
+        <v>3000010</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="59.4">
+      <c r="A30" s="6">
+        <v>3000011</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="52.2">
+      <c r="A31" s="6">
+        <v>3000012</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="69.599999999999994">
+      <c r="A32" s="6">
+        <v>3000013</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="69.599999999999994">
+      <c r="A33" s="6">
+        <v>3000014</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="69.599999999999994">
+      <c r="A34" s="6">
+        <v>3000015</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="69.599999999999994">
+      <c r="A35" s="6">
+        <v>3000016</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="69.599999999999994">
+      <c r="A36" s="6">
+        <v>3000017</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="73.8">
+      <c r="A37" s="6">
+        <v>3000018</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="87">
+      <c r="A38" s="6">
+        <v>3000019</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="87">
+      <c r="A39" s="6">
+        <v>3000020</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="6">
+        <v>3000101</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="6">
+        <v>3000102</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="6">
+        <v>3000103</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="6">
+        <v>3000104</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="6">
+        <v>3000105</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="6">
+        <v>3000106</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="6">
+        <v>3000107</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="6">
+        <v>3000108</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="6">
+        <v>3000109</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="6">
+        <v>3000110</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="6">
+        <v>3000111</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="6">
+        <v>3000112</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="6">
+        <v>3000113</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="6">
+        <v>3000114</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="6">
+        <v>3000115</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="6">
+        <v>3000116</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="6">
+        <v>3000117</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="6">
+        <v>3000118</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="6">
+        <v>3000119</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="6">
+        <v>3000120</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Excel/EposGameText.xlsx
+++ b/Excel/EposGameText.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705A5B04-6462-476A-82D3-E87874E7B917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813DB4C4-03A7-4EBF-B88F-40519CE39D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -3028,459 +3037,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>관측자가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>있었습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>하염없이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>머나먼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>우주를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>내다봤습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>각양각색의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>은하들이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>그녀를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>반겨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>주었습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>그러나</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>그녀는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>무한한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>공간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>어디에서도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>만족하지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>못했습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>어디에도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>우주의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>의미는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>없었기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>때문입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>글은 여러 얼굴을 갖습니다.아무리 옳게 쓰인 글이라도, 읽는 이에 따라 각기 다른 얼굴을 보입니다. 찬미하는 글 속에서도 누군가는 신랄한 비난을 봅니다. 세상을 구하려는 글 속에서도 누군가는 파멸의 길을 봅니다. 빛 속에서도 한 조각 그림자를 찾으려는 이들 탓에, 글은 여러 얼굴을 갖고 말았습니다.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -5234,13 +4790,657 @@
   </si>
   <si>
     <t>맹우 - 드래곤과 11월 서약을 맺는 우왁굳(The Comrade)</t>
+  </si>
+  <si>
+    <t>// 성장 이벤트 이름 텍스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>관측자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>있었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>하염없이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>머나먼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>우주를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>내다봤습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>각양각색의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>은하들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그녀를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>반겨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>주었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그러나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>그녀는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>무한한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>공간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>어디에서도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>만족하지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>못했습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>어디에도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>우주의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>의미는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>없었기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>때문입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페이드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>하트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>클로버</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>천 방어구 획득 시, 추가 부여 효과+N\n기초 공격력 상승+N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 무기 사용 시, 추가 공격력+N\n기초 공격력 상승+N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>천 방어구 획득 시 추가 효과 부여+N\n기초 공격력 상승+N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 무기 사용 시, 추가 공격력+N/n천 방어구 획득 시 추가 효과 부여+N\n기초 공격력 상승+N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가죽 방어구 획득 시, 추가 부여 효과+N\n공격력 상승+N\n방어력 상승+N </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 무기 사용 시, 추가 공격력+N\n근거리 무기 획득 시, 추가 공격력+N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 방어구 획득 시, 추가 부여 효과+N\n공격력 상승+N\n방어력 상승 +N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>판금 방어구 획득 시, 추가 부여 효과+N\n체력 상승+N\n방어력 상승+N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리 무기 획득 시, 추가 공격력+N\n방어력 상승+N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>판금 방어구 획득 시, 추가 부여 효과+N\n최대 체력 상승 +N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 상승+N\n최대 체력 상승 +N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>판금 방어구 획득 시, 추가 부여 효과+N\n근거리 무기 획득 시, 추가 공격력+N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 점수 증가 배율 부여+N\n시야 증가+N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리 무기 획득 시, 추가 공격력+N\n전체 방어구 획득 시, 추가 부여 효과+N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 무기 사용 시, 추가 공격력+N\n시야 증가+N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 점수 증가 배율 부여+N\n전체 방어구 획득 시, 추가 부여 효과+N\n근거리 무기 획득 시 추가 공격력+N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 무기 사용 시, 추가 공격력+N\n전체 방어구 획득 시 추가 효과 부여+N\n결과 점수 증가 배율+N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>천 방어구 획득 시 부여 받는 방어력+N%\n원거리 공격 시, 데미지+N%\n기초 공격력+N%</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 무기 사용 시, 추가 공격력+N\n근거리 무기 획득 시, 추가 공격력+N\n방어력 상승+N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 방어구 획득 시 부여받는 방어력+N%\n공격력 상승+N%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>판금  방어구 획득 시 부여 받는 방어력+N%\n최대 체력+N%\n방어력 상승+N%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가+N%\n결과 점수 증가 배율+N%\n방어구 획득 시 추가 부여 방어력+N%\n시야 증가+N%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 성장 이벤트 수집 완료 효과 이름 텍스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번 문양 완료 효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 이름</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2번 문양 완료 효과 이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3번 문양 완료 효과 이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4번 문양 완료 효과 이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> // 성장 이벤트 설정 내용 텍스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 성장 이벤트 효과 텍스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5301,8 +5501,23 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5318,6 +5533,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5349,7 +5570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5384,6 +5605,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5665,17 +5900,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6"/>
-    <col min="2" max="2" width="68.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="6"/>
+    <col min="1" max="1" width="8.75" style="6"/>
+    <col min="2" max="2" width="93.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5774,327 +6009,740 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="20" spans="1:2" ht="52.2">
+      <c r="A12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:3" ht="49.5">
+      <c r="A13" s="6">
+        <v>3000001</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="49.5">
+      <c r="A14" s="6">
+        <v>3000002</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="66">
+      <c r="A15" s="6">
+        <v>3000003</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="49.5">
+      <c r="A16" s="6">
+        <v>3000004</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="58.5">
+      <c r="A17" s="6">
+        <v>3000005</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="66">
+      <c r="A18" s="6">
+        <v>3000006</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="49.5">
+      <c r="A19" s="6">
+        <v>3000007</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="66">
       <c r="A20" s="6">
-        <v>3000001</v>
-      </c>
-      <c r="B20" s="11" t="s">
+        <v>3000008</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="66">
+      <c r="A21" s="6">
+        <v>3000009</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="66">
+      <c r="A22" s="6">
+        <v>3000010</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="52.2">
-      <c r="A21" s="6">
-        <v>3000002</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="69.599999999999994">
-      <c r="A22" s="6">
-        <v>3000003</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="52.2">
+    <row r="23" spans="1:2" ht="58.5">
       <c r="A23" s="6">
-        <v>3000004</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="59.4">
+        <v>3000011</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="49.5">
       <c r="A24" s="6">
-        <v>3000005</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="69.599999999999994">
+        <v>3000012</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="66">
       <c r="A25" s="6">
-        <v>3000006</v>
+        <v>3000013</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="52.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="66">
       <c r="A26" s="6">
-        <v>3000007</v>
+        <v>3000014</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="69.599999999999994">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="66">
       <c r="A27" s="6">
-        <v>3000008</v>
+        <v>3000015</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="69.599999999999994">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="66">
       <c r="A28" s="6">
-        <v>3000009</v>
+        <v>3000016</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="69.599999999999994">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="66">
       <c r="A29" s="6">
-        <v>3000010</v>
+        <v>3000017</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="59.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="72.75">
       <c r="A30" s="6">
-        <v>3000011</v>
+        <v>3000018</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="52.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="82.5">
       <c r="A31" s="6">
-        <v>3000012</v>
+        <v>3000019</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="69.599999999999994">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="82.5">
       <c r="A32" s="6">
-        <v>3000013</v>
+        <v>3000020</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="69.599999999999994">
-      <c r="A33" s="6">
-        <v>3000014</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="69.599999999999994">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="6">
-        <v>3000015</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="69.599999999999994">
+        <v>3000101</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="6">
-        <v>3000016</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="69.599999999999994">
+        <v>3000102</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="6">
-        <v>3000017</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="73.8">
+        <v>3000103</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="6">
-        <v>3000018</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="87">
+        <v>3000104</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="6">
-        <v>3000019</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="87">
+        <v>3000105</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="6">
-        <v>3000020</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>3000106</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="6">
-        <v>3000101</v>
+        <v>3000107</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="6">
-        <v>3000102</v>
+        <v>3000108</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="6">
-        <v>3000103</v>
+        <v>3000109</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="6">
-        <v>3000104</v>
+        <v>3000110</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="6">
-        <v>3000105</v>
+        <v>3000111</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="6">
-        <v>3000106</v>
+        <v>3000112</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="6">
-        <v>3000107</v>
+        <v>3000113</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="6">
-        <v>3000108</v>
+        <v>3000114</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="6">
-        <v>3000109</v>
+        <v>3000115</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="6">
-        <v>3000110</v>
+        <v>3000116</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="6">
-        <v>3000111</v>
+        <v>3000117</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="6">
-        <v>3000112</v>
+        <v>3000118</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="6">
-        <v>3000113</v>
+        <v>3000119</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="6">
-        <v>3000114</v>
+        <v>3000120</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="6">
-        <v>3000115</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="13"/>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="6">
-        <v>3000116</v>
+        <v>3001101</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="6">
-        <v>3000117</v>
+        <v>3001102</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="6">
-        <v>3000118</v>
+        <v>3001103</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="6">
-        <v>3000119</v>
+        <v>3001104</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="6">
-        <v>3000120</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="13"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="6">
+        <v>3002101</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="6">
+        <f>A60+1</f>
+        <v>3002102</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="6">
+        <f t="shared" ref="A62:A83" si="0">A61+1</f>
+        <v>3002103</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="6">
+        <f t="shared" si="0"/>
+        <v>3002104</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="6">
+        <f t="shared" si="0"/>
+        <v>3002105</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="6">
+        <f t="shared" si="0"/>
+        <v>3002106</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="6">
+        <f t="shared" si="0"/>
+        <v>3002107</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="6">
+        <f t="shared" si="0"/>
+        <v>3002108</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="6">
+        <f t="shared" si="0"/>
+        <v>3002109</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="6">
+        <f t="shared" si="0"/>
+        <v>3002110</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="6">
+        <f t="shared" si="0"/>
+        <v>3002111</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="6">
+        <f t="shared" si="0"/>
+        <v>3002112</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="6">
+        <f t="shared" si="0"/>
+        <v>3002113</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="6">
+        <f t="shared" si="0"/>
+        <v>3002114</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="6">
+        <f t="shared" si="0"/>
+        <v>3002115</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="6">
+        <f t="shared" si="0"/>
+        <v>3002116</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="6">
+        <f t="shared" si="0"/>
+        <v>3002117</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="6">
+        <f t="shared" si="0"/>
+        <v>3002118</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="6">
+        <f t="shared" si="0"/>
+        <v>3002119</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="6">
+        <f t="shared" si="0"/>
+        <v>3002120</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="6">
+        <f t="shared" si="0"/>
+        <v>3002121</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="6">
+        <f t="shared" si="0"/>
+        <v>3002122</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="6">
+        <f t="shared" si="0"/>
+        <v>3002123</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="6">
+        <f t="shared" si="0"/>
+        <v>3002124</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="B86" s="17"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="B88" s="16"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="B89" s="17"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="B91" s="16"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="B92" s="16"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="B93" s="16"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="B94" s="17"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="B96" s="16"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="17"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="16"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="16"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="17"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="16"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="17"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="16"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="16"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="16"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="17"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="16"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="17"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="16"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="16"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
